--- a/DMS/Templates/Monitor_Salesman_Report.xlsx
+++ b/DMS/Templates/Monitor_Salesman_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -59,37 +59,40 @@
     <t>{{Start}}</t>
   </si>
   <si>
-    <t>{{OrganizationName}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.Username}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.PlanCounter}</t>
-  </si>
-  <si>
     <t>Viếng thăm trong kỳ</t>
   </si>
   <si>
     <t>Viếng thăm ngoài kỳ</t>
   </si>
   <si>
-    <t>{{OrganizationName.SaleEmployees.InternalCounter}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.ExternalCounter}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.ImageCounter}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.SalesOrderCounter}}</t>
-  </si>
-  <si>
-    <t>{{OrganizationName.SaleEmployees.Revenue}}</t>
+    <t>{{MonitorSalesmans.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.Username}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.PlanCounter}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.InternalCounter}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.ExternalCounter}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.ImageCounter}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.SalesOrderCounter}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.Revenue}}</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.STT}}</t>
   </si>
 </sst>
 </file>
@@ -515,13 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
@@ -566,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -583,7 +589,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -594,18 +600,18 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
+    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>17</v>
@@ -622,76 +628,6 @@
       <c r="I9" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DMS/Templates/Monitor_Salesman_Report.xlsx
+++ b/DMS/Templates/Monitor_Salesman_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24A725-5EA0-4B5E-9B9C-5DFE83AFCBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +45,6 @@
     <t>Tên nhân viên</t>
   </si>
   <si>
-    <t>Cửa hàng đi theo kế hoạch</t>
-  </si>
-  <si>
     <t>Đơn hàng</t>
   </si>
   <si>
@@ -93,12 +91,15 @@
   </si>
   <si>
     <t>{{MonitorSalesmans.SaleEmployees.STT}}</t>
+  </si>
+  <si>
+    <t>Đại lý đi theo kế hoạch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -527,20 +528,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="17.109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -569,27 +570,27 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -602,31 +603,31 @@
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Monitor_Salesman_Report.xlsx
+++ b/DMS/Templates/Monitor_Salesman_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24A725-5EA0-4B5E-9B9C-5DFE83AFCBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A79650-418B-4876-804A-7B72DEC5E7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Đại lý đi theo kế hoạch</t>
+  </si>
+  <si>
+    <t>{{MonitorSalesmans.SaleEmployees.Unchecking}}</t>
+  </si>
+  <si>
+    <t>Không viếng thăm</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -238,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,117 +530,128 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:I8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
